--- a/inst/extdata/mb1987b.xlsx
+++ b/inst/extdata/mb1987b.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\storage.yale.edu\home\HASKINS_A195-997121-haskinslab\07 - Modeling\wordsets for model criticism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\braze\R\development\FDBwordsets-dev\FDBwordsets\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="8385" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1308" yWindow="0" windowWidth="20604" windowHeight="8484" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="323">
   <si>
     <t>McCann-Besner-1987-Appendix-B</t>
   </si>
@@ -986,12 +986,21 @@
   </si>
   <si>
     <t>src_type</t>
+  </si>
+  <si>
+    <t>kr^p</t>
+  </si>
+  <si>
+    <t>klId</t>
+  </si>
+  <si>
+    <t>kolp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1314,21 +1323,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.5"/>
+    <col min="1" max="1025" width="8.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1368,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1388,7 +1397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1408,7 +1417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1428,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1448,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1468,7 +1477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1488,7 +1497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1508,7 +1517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1528,7 +1537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1548,7 +1557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1568,7 +1577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1588,7 +1597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1608,7 +1617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1628,7 +1637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1648,7 +1657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1668,7 +1677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1689,7 +1698,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -1710,7 +1719,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10</v>
       </c>
@@ -1750,7 +1759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1770,7 +1779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11</v>
       </c>
@@ -1790,7 +1799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14</v>
       </c>
@@ -1910,7 +1919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>16</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>16</v>
       </c>
@@ -1990,7 +1999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>17</v>
       </c>
@@ -2010,7 +2019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>17</v>
       </c>
@@ -2030,7 +2039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>18</v>
       </c>
@@ -2050,7 +2059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>18</v>
       </c>
@@ -2070,7 +2079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>19</v>
       </c>
@@ -2090,7 +2099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>19</v>
       </c>
@@ -2110,7 +2119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20</v>
       </c>
@@ -2130,7 +2139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>20</v>
       </c>
@@ -2150,7 +2159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>21</v>
       </c>
@@ -2170,7 +2179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>21</v>
       </c>
@@ -2190,7 +2199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>22</v>
       </c>
@@ -2210,7 +2219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>22</v>
       </c>
@@ -2230,7 +2239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>23</v>
       </c>
@@ -2250,7 +2259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>23</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>24</v>
       </c>
@@ -2290,7 +2299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>24</v>
       </c>
@@ -2310,7 +2319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>25</v>
       </c>
@@ -2330,7 +2339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>25</v>
       </c>
@@ -2350,7 +2359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>26</v>
       </c>
@@ -2370,7 +2379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>26</v>
       </c>
@@ -2390,7 +2399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>27</v>
       </c>
@@ -2410,7 +2419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>27</v>
       </c>
@@ -2430,7 +2439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>28</v>
       </c>
@@ -2450,7 +2459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>28</v>
       </c>
@@ -2470,7 +2479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>29</v>
       </c>
@@ -2490,7 +2499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>29</v>
       </c>
@@ -2510,7 +2519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>30</v>
       </c>
@@ -2530,7 +2539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>30</v>
       </c>
@@ -2550,7 +2559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>31</v>
       </c>
@@ -2570,7 +2579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>31</v>
       </c>
@@ -2590,7 +2599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>32</v>
       </c>
@@ -2610,7 +2619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>32</v>
       </c>
@@ -2630,7 +2639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>33</v>
       </c>
@@ -2650,7 +2659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>33</v>
       </c>
@@ -2670,7 +2679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>34</v>
       </c>
@@ -2690,7 +2699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>34</v>
       </c>
@@ -2710,7 +2719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>35</v>
       </c>
@@ -2730,7 +2739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>35</v>
       </c>
@@ -2750,7 +2759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>36</v>
       </c>
@@ -2770,7 +2779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>36</v>
       </c>
@@ -2790,7 +2799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>37</v>
       </c>
@@ -2810,7 +2819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>37</v>
       </c>
@@ -2830,7 +2839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>38</v>
       </c>
@@ -2850,7 +2859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>38</v>
       </c>
@@ -2870,7 +2879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>39</v>
       </c>
@@ -2890,7 +2899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>39</v>
       </c>
@@ -2910,7 +2919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>40</v>
       </c>
@@ -2930,7 +2939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>40</v>
       </c>
@@ -2950,7 +2959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>41</v>
       </c>
@@ -2971,7 +2980,7 @@
       </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>41</v>
       </c>
@@ -2991,7 +3000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>42</v>
       </c>
@@ -3011,7 +3020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>42</v>
       </c>
@@ -3019,7 +3028,7 @@
         <v>170</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="D86">
         <v>503</v>
@@ -3031,7 +3040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>43</v>
       </c>
@@ -3051,7 +3060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>43</v>
       </c>
@@ -3071,7 +3080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>44</v>
       </c>
@@ -3091,7 +3100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>44</v>
       </c>
@@ -3111,7 +3120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>45</v>
       </c>
@@ -3132,7 +3141,7 @@
       </c>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>45</v>
       </c>
@@ -3153,7 +3162,7 @@
       </c>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>46</v>
       </c>
@@ -3173,7 +3182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>46</v>
       </c>
@@ -3193,7 +3202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>47</v>
       </c>
@@ -3213,7 +3222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>47</v>
       </c>
@@ -3233,7 +3242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>48</v>
       </c>
@@ -3253,7 +3262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>48</v>
       </c>
@@ -3261,7 +3270,7 @@
         <v>194</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="D98">
         <v>560</v>
@@ -3273,7 +3282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>49</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>49</v>
       </c>
@@ -3313,7 +3322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>50</v>
       </c>
@@ -3333,7 +3342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>50</v>
       </c>
@@ -3353,7 +3362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>51</v>
       </c>
@@ -3373,7 +3382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>51</v>
       </c>
@@ -3393,7 +3402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>52</v>
       </c>
@@ -3413,7 +3422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>52</v>
       </c>
@@ -3433,7 +3442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>53</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>53</v>
       </c>
@@ -3473,7 +3482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>54</v>
       </c>
@@ -3493,7 +3502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>54</v>
       </c>
@@ -3513,7 +3522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>55</v>
       </c>
@@ -3533,7 +3542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>55</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>56</v>
       </c>
@@ -3573,7 +3582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>56</v>
       </c>
@@ -3593,7 +3602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>57</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>57</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>58</v>
       </c>
@@ -3653,7 +3662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>58</v>
       </c>
@@ -3673,7 +3682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>59</v>
       </c>
@@ -3693,7 +3702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>59</v>
       </c>
@@ -3713,7 +3722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>60</v>
       </c>
@@ -3733,7 +3742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>60</v>
       </c>
@@ -3753,7 +3762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>61</v>
       </c>
@@ -3773,7 +3782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>61</v>
       </c>
@@ -3793,7 +3802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>62</v>
       </c>
@@ -3801,7 +3810,7 @@
         <v>247</v>
       </c>
       <c r="C125" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="D125">
         <v>658</v>
@@ -3813,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>62</v>
       </c>
@@ -3833,7 +3842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>63</v>
       </c>
@@ -3853,7 +3862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>63</v>
       </c>
@@ -3874,7 +3883,7 @@
       </c>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>64</v>
       </c>
@@ -3894,7 +3903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>64</v>
       </c>
@@ -3914,7 +3923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>65</v>
       </c>
@@ -3934,7 +3943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>65</v>
       </c>
@@ -3954,7 +3963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>66</v>
       </c>
@@ -3974,7 +3983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>66</v>
       </c>
@@ -3994,7 +4003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>67</v>
       </c>
@@ -4014,7 +4023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>67</v>
       </c>
@@ -4034,7 +4043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>68</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>68</v>
       </c>
@@ -4074,7 +4083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>69</v>
       </c>
@@ -4094,7 +4103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>69</v>
       </c>
@@ -4114,7 +4123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>70</v>
       </c>
@@ -4134,7 +4143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>70</v>
       </c>
@@ -4154,7 +4163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>71</v>
       </c>
@@ -4174,7 +4183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>71</v>
       </c>
@@ -4194,7 +4203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>72</v>
       </c>
@@ -4214,7 +4223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>72</v>
       </c>
@@ -4234,7 +4243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>73</v>
       </c>
@@ -4254,7 +4263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>73</v>
       </c>
@@ -4274,7 +4283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>74</v>
       </c>
@@ -4295,7 +4304,7 @@
       </c>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>74</v>
       </c>
@@ -4316,7 +4325,7 @@
       </c>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>75</v>
       </c>
@@ -4336,7 +4345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>75</v>
       </c>
@@ -4356,7 +4365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>76</v>
       </c>
@@ -4376,7 +4385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>76</v>
       </c>
@@ -4396,7 +4405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>77</v>
       </c>
@@ -4416,7 +4425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>77</v>
       </c>
@@ -4436,7 +4445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>78</v>
       </c>
@@ -4456,7 +4465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>78</v>
       </c>
@@ -4476,7 +4485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>79</v>
       </c>
@@ -4496,7 +4505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>79</v>
       </c>
@@ -4516,7 +4525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>80</v>
       </c>
@@ -4536,7 +4545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>80</v>
       </c>
@@ -4570,17 +4579,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="10.625"/>
+    <col min="1" max="1025" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4600,7 +4609,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4620,7 +4629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4640,7 +4649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4660,7 +4669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4680,7 +4689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4700,7 +4709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -4760,7 +4769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4780,7 +4789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4800,7 +4809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
@@ -4820,7 +4829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -4840,7 +4849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -4860,7 +4869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
@@ -4880,7 +4889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -4900,7 +4909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -4920,7 +4929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9</v>
       </c>
@@ -4940,7 +4949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -4960,7 +4969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
@@ -4980,7 +4989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10</v>
       </c>
@@ -5000,7 +5009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -5020,7 +5029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11</v>
       </c>
@@ -5040,7 +5049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
@@ -5060,7 +5069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12</v>
       </c>
@@ -5080,7 +5089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13</v>
       </c>
@@ -5100,7 +5109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13</v>
       </c>
@@ -5120,7 +5129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -5140,7 +5149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14</v>
       </c>
@@ -5160,7 +5169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15</v>
       </c>
@@ -5180,7 +5189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15</v>
       </c>
@@ -5200,7 +5209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>16</v>
       </c>
@@ -5220,7 +5229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>16</v>
       </c>
@@ -5240,7 +5249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>17</v>
       </c>
@@ -5260,7 +5269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>17</v>
       </c>
@@ -5280,7 +5289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>18</v>
       </c>
@@ -5300,7 +5309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>18</v>
       </c>
@@ -5320,7 +5329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>19</v>
       </c>
@@ -5340,7 +5349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>19</v>
       </c>
@@ -5360,7 +5369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20</v>
       </c>
@@ -5380,7 +5389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>20</v>
       </c>
@@ -5400,7 +5409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>21</v>
       </c>
@@ -5420,7 +5429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>21</v>
       </c>
@@ -5440,7 +5449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>22</v>
       </c>
@@ -5460,7 +5469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>22</v>
       </c>
@@ -5480,7 +5489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>23</v>
       </c>
@@ -5500,7 +5509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>23</v>
       </c>
@@ -5520,7 +5529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>24</v>
       </c>
@@ -5540,7 +5549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>24</v>
       </c>
@@ -5560,7 +5569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>25</v>
       </c>
@@ -5580,7 +5589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>25</v>
       </c>
@@ -5600,7 +5609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>26</v>
       </c>
@@ -5620,7 +5629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>26</v>
       </c>
@@ -5640,7 +5649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>27</v>
       </c>
@@ -5660,7 +5669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>27</v>
       </c>
@@ -5680,7 +5689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>28</v>
       </c>
@@ -5700,7 +5709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>28</v>
       </c>
@@ -5720,7 +5729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>29</v>
       </c>
@@ -5740,7 +5749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>29</v>
       </c>
@@ -5760,7 +5769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>30</v>
       </c>
@@ -5780,7 +5789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>30</v>
       </c>
@@ -5800,7 +5809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>31</v>
       </c>
@@ -5820,7 +5829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>31</v>
       </c>
@@ -5840,7 +5849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>32</v>
       </c>
@@ -5860,7 +5869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>32</v>
       </c>
@@ -5880,7 +5889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>33</v>
       </c>
@@ -5900,7 +5909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>33</v>
       </c>
@@ -5920,7 +5929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>34</v>
       </c>
@@ -5940,7 +5949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>34</v>
       </c>
@@ -5960,7 +5969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>35</v>
       </c>
@@ -5980,7 +5989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>35</v>
       </c>
@@ -6000,7 +6009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>36</v>
       </c>
@@ -6020,7 +6029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>36</v>
       </c>
@@ -6040,7 +6049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>37</v>
       </c>
@@ -6060,7 +6069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>37</v>
       </c>
@@ -6080,7 +6089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>38</v>
       </c>
@@ -6100,7 +6109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>38</v>
       </c>
@@ -6120,7 +6129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>39</v>
       </c>
@@ -6140,7 +6149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>39</v>
       </c>
@@ -6160,7 +6169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>40</v>
       </c>
@@ -6180,7 +6189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>40</v>
       </c>
@@ -6200,7 +6209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>41</v>
       </c>
@@ -6220,7 +6229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>41</v>
       </c>
@@ -6240,7 +6249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>42</v>
       </c>
@@ -6260,7 +6269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>42</v>
       </c>
@@ -6280,7 +6289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>43</v>
       </c>
@@ -6300,7 +6309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>43</v>
       </c>
@@ -6320,7 +6329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>44</v>
       </c>
@@ -6340,7 +6349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>44</v>
       </c>
@@ -6360,7 +6369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>45</v>
       </c>
@@ -6380,7 +6389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>45</v>
       </c>
@@ -6400,7 +6409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>46</v>
       </c>
@@ -6420,7 +6429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>46</v>
       </c>
@@ -6440,7 +6449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>47</v>
       </c>
@@ -6460,7 +6469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>47</v>
       </c>
@@ -6480,7 +6489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>48</v>
       </c>
@@ -6500,7 +6509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>48</v>
       </c>
@@ -6520,7 +6529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>49</v>
       </c>
@@ -6540,7 +6549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>49</v>
       </c>
@@ -6560,7 +6569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>50</v>
       </c>
@@ -6580,7 +6589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>50</v>
       </c>
@@ -6600,7 +6609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>51</v>
       </c>
@@ -6620,7 +6629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>51</v>
       </c>
@@ -6640,7 +6649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>52</v>
       </c>
@@ -6660,7 +6669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>52</v>
       </c>
@@ -6680,7 +6689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>53</v>
       </c>
@@ -6700,7 +6709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>53</v>
       </c>
@@ -6720,7 +6729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>54</v>
       </c>
@@ -6740,7 +6749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>54</v>
       </c>
@@ -6760,7 +6769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>55</v>
       </c>
@@ -6780,7 +6789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>55</v>
       </c>
@@ -6800,7 +6809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>56</v>
       </c>
@@ -6820,7 +6829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>56</v>
       </c>
@@ -6840,7 +6849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>57</v>
       </c>
@@ -6860,7 +6869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>57</v>
       </c>
@@ -6880,7 +6889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>58</v>
       </c>
@@ -6900,7 +6909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>58</v>
       </c>
@@ -6920,7 +6929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>59</v>
       </c>
@@ -6940,7 +6949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>59</v>
       </c>
@@ -6960,7 +6969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>60</v>
       </c>
@@ -6980,7 +6989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>60</v>
       </c>
@@ -7000,7 +7009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>61</v>
       </c>
@@ -7020,7 +7029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>61</v>
       </c>
@@ -7040,7 +7049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>62</v>
       </c>
@@ -7060,7 +7069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>62</v>
       </c>
@@ -7080,7 +7089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>63</v>
       </c>
@@ -7100,7 +7109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>63</v>
       </c>
@@ -7120,7 +7129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>64</v>
       </c>
@@ -7140,7 +7149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>64</v>
       </c>
@@ -7160,7 +7169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>65</v>
       </c>
@@ -7180,7 +7189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>65</v>
       </c>
@@ -7200,7 +7209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>66</v>
       </c>
@@ -7220,7 +7229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>66</v>
       </c>
@@ -7240,7 +7249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>67</v>
       </c>
@@ -7260,7 +7269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>67</v>
       </c>
@@ -7280,7 +7289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>68</v>
       </c>
@@ -7300,7 +7309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>68</v>
       </c>
@@ -7320,7 +7329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>69</v>
       </c>
@@ -7340,7 +7349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>69</v>
       </c>
@@ -7360,7 +7369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>70</v>
       </c>
@@ -7380,7 +7389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>70</v>
       </c>
@@ -7400,7 +7409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>71</v>
       </c>
@@ -7420,7 +7429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>71</v>
       </c>
@@ -7440,7 +7449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>72</v>
       </c>
@@ -7460,7 +7469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>72</v>
       </c>
@@ -7480,7 +7489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>73</v>
       </c>
@@ -7500,7 +7509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>73</v>
       </c>
@@ -7520,7 +7529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>74</v>
       </c>
@@ -7540,7 +7549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>74</v>
       </c>
@@ -7560,7 +7569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>75</v>
       </c>
@@ -7580,7 +7589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>75</v>
       </c>
@@ -7600,7 +7609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>76</v>
       </c>
@@ -7620,7 +7629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>76</v>
       </c>
@@ -7640,7 +7649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>77</v>
       </c>
@@ -7660,7 +7669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>77</v>
       </c>
@@ -7680,7 +7689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>78</v>
       </c>
@@ -7700,7 +7709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>78</v>
       </c>
@@ -7720,7 +7729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>79</v>
       </c>
@@ -7740,7 +7749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>79</v>
       </c>
@@ -7760,7 +7769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>80</v>
       </c>
@@ -7780,7 +7789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>80</v>
       </c>
@@ -7814,22 +7823,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="10.625"/>
+    <col min="1" max="1025" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>IF(Sheet1!A1=Sheet2!A1,Sheet1!A1,"")</f>
         <v>McCann-Besner-1987-Appendix-B</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(Sheet1!A2=Sheet2!A2,Sheet1!A2,"")</f>
         <v>set</v>
@@ -7855,7 +7864,7 @@
         <v>src_type</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>IF(Sheet1!A3=Sheet2!A3,Sheet1!A3,"")</f>
         <v>1</v>
@@ -7881,7 +7890,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>IF(Sheet1!A4=Sheet2!A4,Sheet1!A4,"")</f>
         <v>1</v>
@@ -7907,7 +7916,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>IF(Sheet1!A5=Sheet2!A5,Sheet1!A5,"")</f>
         <v>2</v>
@@ -7933,7 +7942,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>IF(Sheet1!A6=Sheet2!A6,Sheet1!A6,"")</f>
         <v>2</v>
@@ -7959,7 +7968,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>IF(Sheet1!A7=Sheet2!A7,Sheet1!A7,"")</f>
         <v>3</v>
@@ -7985,7 +7994,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>IF(Sheet1!A8=Sheet2!A8,Sheet1!A8,"")</f>
         <v>3</v>
@@ -8011,7 +8020,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>IF(Sheet1!A9=Sheet2!A9,Sheet1!A9,"")</f>
         <v>4</v>
@@ -8037,7 +8046,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>IF(Sheet1!A10=Sheet2!A10,Sheet1!A10,"")</f>
         <v>4</v>
@@ -8063,7 +8072,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>IF(Sheet1!A11=Sheet2!A11,Sheet1!A11,"")</f>
         <v>5</v>
@@ -8089,7 +8098,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>IF(Sheet1!A12=Sheet2!A12,Sheet1!A12,"")</f>
         <v>5</v>
@@ -8115,7 +8124,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>IF(Sheet1!A13=Sheet2!A13,Sheet1!A13,"")</f>
         <v>6</v>
@@ -8141,7 +8150,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>IF(Sheet1!A14=Sheet2!A14,Sheet1!A14,"")</f>
         <v>6</v>
@@ -8167,7 +8176,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>IF(Sheet1!A15=Sheet2!A15,Sheet1!A15,"")</f>
         <v>7</v>
@@ -8193,7 +8202,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>IF(Sheet1!A16=Sheet2!A16,Sheet1!A16,"")</f>
         <v>7</v>
@@ -8219,7 +8228,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>IF(Sheet1!A17=Sheet2!A17,Sheet1!A17,"")</f>
         <v>8</v>
@@ -8245,7 +8254,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>IF(Sheet1!A18=Sheet2!A18,Sheet1!A18,"")</f>
         <v>8</v>
@@ -8271,7 +8280,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>IF(Sheet1!A19=Sheet2!A19,Sheet1!A19,"")</f>
         <v>9</v>
@@ -8297,7 +8306,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>IF(Sheet1!A20=Sheet2!A20,Sheet1!A20,"")</f>
         <v>9</v>
@@ -8323,7 +8332,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>IF(Sheet1!A21=Sheet2!A21,Sheet1!A21,"")</f>
         <v>10</v>
@@ -8349,7 +8358,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>IF(Sheet1!A22=Sheet2!A22,Sheet1!A22,"")</f>
         <v>10</v>
@@ -8375,7 +8384,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>IF(Sheet1!A23=Sheet2!A23,Sheet1!A23,"")</f>
         <v>11</v>
@@ -8401,7 +8410,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>IF(Sheet1!A24=Sheet2!A24,Sheet1!A24,"")</f>
         <v>11</v>
@@ -8427,7 +8436,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>IF(Sheet1!A25=Sheet2!A25,Sheet1!A25,"")</f>
         <v>12</v>
@@ -8453,7 +8462,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>IF(Sheet1!A26=Sheet2!A26,Sheet1!A26,"")</f>
         <v>12</v>
@@ -8479,7 +8488,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>IF(Sheet1!A27=Sheet2!A27,Sheet1!A27,"")</f>
         <v>13</v>
@@ -8505,7 +8514,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>IF(Sheet1!A28=Sheet2!A28,Sheet1!A28,"")</f>
         <v>13</v>
@@ -8531,7 +8540,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>IF(Sheet1!A29=Sheet2!A29,Sheet1!A29,"")</f>
         <v>14</v>
@@ -8557,7 +8566,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>IF(Sheet1!A30=Sheet2!A30,Sheet1!A30,"")</f>
         <v>14</v>
@@ -8583,7 +8592,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>IF(Sheet1!A31=Sheet2!A31,Sheet1!A31,"")</f>
         <v>15</v>
@@ -8609,7 +8618,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>IF(Sheet1!A32=Sheet2!A32,Sheet1!A32,"")</f>
         <v>15</v>
@@ -8635,7 +8644,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>IF(Sheet1!A33=Sheet2!A33,Sheet1!A33,"")</f>
         <v>16</v>
@@ -8661,7 +8670,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>IF(Sheet1!A34=Sheet2!A34,Sheet1!A34,"")</f>
         <v>16</v>
@@ -8687,7 +8696,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>IF(Sheet1!A35=Sheet2!A35,Sheet1!A35,"")</f>
         <v>17</v>
@@ -8713,7 +8722,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>IF(Sheet1!A36=Sheet2!A36,Sheet1!A36,"")</f>
         <v>17</v>
@@ -8739,7 +8748,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>IF(Sheet1!A37=Sheet2!A37,Sheet1!A37,"")</f>
         <v>18</v>
@@ -8765,7 +8774,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>IF(Sheet1!A38=Sheet2!A38,Sheet1!A38,"")</f>
         <v>18</v>
@@ -8791,7 +8800,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>IF(Sheet1!A39=Sheet2!A39,Sheet1!A39,"")</f>
         <v>19</v>
@@ -8817,7 +8826,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>IF(Sheet1!A40=Sheet2!A40,Sheet1!A40,"")</f>
         <v>19</v>
@@ -8843,7 +8852,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>IF(Sheet1!A41=Sheet2!A41,Sheet1!A41,"")</f>
         <v>20</v>
@@ -8869,7 +8878,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>IF(Sheet1!A42=Sheet2!A42,Sheet1!A42,"")</f>
         <v>20</v>
@@ -8895,7 +8904,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>IF(Sheet1!A43=Sheet2!A43,Sheet1!A43,"")</f>
         <v>21</v>
@@ -8921,7 +8930,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>IF(Sheet1!A44=Sheet2!A44,Sheet1!A44,"")</f>
         <v>21</v>
@@ -8947,7 +8956,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>IF(Sheet1!A45=Sheet2!A45,Sheet1!A45,"")</f>
         <v>22</v>
@@ -8973,7 +8982,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>IF(Sheet1!A46=Sheet2!A46,Sheet1!A46,"")</f>
         <v>22</v>
@@ -8999,7 +9008,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>IF(Sheet1!A47=Sheet2!A47,Sheet1!A47,"")</f>
         <v>23</v>
@@ -9025,7 +9034,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>IF(Sheet1!A48=Sheet2!A48,Sheet1!A48,"")</f>
         <v>23</v>
@@ -9051,7 +9060,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>IF(Sheet1!A49=Sheet2!A49,Sheet1!A49,"")</f>
         <v>24</v>
@@ -9077,7 +9086,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>IF(Sheet1!A50=Sheet2!A50,Sheet1!A50,"")</f>
         <v>24</v>
@@ -9103,7 +9112,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>IF(Sheet1!A51=Sheet2!A51,Sheet1!A51,"")</f>
         <v>25</v>
@@ -9129,7 +9138,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>IF(Sheet1!A52=Sheet2!A52,Sheet1!A52,"")</f>
         <v>25</v>
@@ -9155,7 +9164,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>IF(Sheet1!A53=Sheet2!A53,Sheet1!A53,"")</f>
         <v>26</v>
@@ -9181,7 +9190,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>IF(Sheet1!A54=Sheet2!A54,Sheet1!A54,"")</f>
         <v>26</v>
@@ -9207,7 +9216,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>IF(Sheet1!A55=Sheet2!A55,Sheet1!A55,"")</f>
         <v>27</v>
@@ -9233,7 +9242,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>IF(Sheet1!A56=Sheet2!A56,Sheet1!A56,"")</f>
         <v>27</v>
@@ -9259,7 +9268,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>IF(Sheet1!A57=Sheet2!A57,Sheet1!A57,"")</f>
         <v>28</v>
@@ -9285,7 +9294,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>IF(Sheet1!A58=Sheet2!A58,Sheet1!A58,"")</f>
         <v>28</v>
@@ -9311,7 +9320,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>IF(Sheet1!A59=Sheet2!A59,Sheet1!A59,"")</f>
         <v>29</v>
@@ -9337,7 +9346,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>IF(Sheet1!A60=Sheet2!A60,Sheet1!A60,"")</f>
         <v>29</v>
@@ -9363,7 +9372,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>IF(Sheet1!A61=Sheet2!A61,Sheet1!A61,"")</f>
         <v>30</v>
@@ -9389,7 +9398,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>IF(Sheet1!A62=Sheet2!A62,Sheet1!A62,"")</f>
         <v>30</v>
@@ -9415,7 +9424,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>IF(Sheet1!A63=Sheet2!A63,Sheet1!A63,"")</f>
         <v>31</v>
@@ -9441,7 +9450,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>IF(Sheet1!A64=Sheet2!A64,Sheet1!A64,"")</f>
         <v>31</v>
@@ -9467,7 +9476,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>IF(Sheet1!A65=Sheet2!A65,Sheet1!A65,"")</f>
         <v>32</v>
@@ -9493,7 +9502,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>IF(Sheet1!A66=Sheet2!A66,Sheet1!A66,"")</f>
         <v>32</v>
@@ -9519,7 +9528,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>IF(Sheet1!A67=Sheet2!A67,Sheet1!A67,"")</f>
         <v>33</v>
@@ -9545,7 +9554,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>IF(Sheet1!A68=Sheet2!A68,Sheet1!A68,"")</f>
         <v>33</v>
@@ -9571,7 +9580,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>IF(Sheet1!A69=Sheet2!A69,Sheet1!A69,"")</f>
         <v>34</v>
@@ -9597,7 +9606,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>IF(Sheet1!A70=Sheet2!A70,Sheet1!A70,"")</f>
         <v>34</v>
@@ -9623,7 +9632,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>IF(Sheet1!A71=Sheet2!A71,Sheet1!A71,"")</f>
         <v>35</v>
@@ -9649,7 +9658,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>IF(Sheet1!A72=Sheet2!A72,Sheet1!A72,"")</f>
         <v>35</v>
@@ -9675,7 +9684,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>IF(Sheet1!A73=Sheet2!A73,Sheet1!A73,"")</f>
         <v>36</v>
@@ -9701,7 +9710,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>IF(Sheet1!A74=Sheet2!A74,Sheet1!A74,"")</f>
         <v>36</v>
@@ -9727,7 +9736,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>IF(Sheet1!A75=Sheet2!A75,Sheet1!A75,"")</f>
         <v>37</v>
@@ -9753,7 +9762,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>IF(Sheet1!A76=Sheet2!A76,Sheet1!A76,"")</f>
         <v>37</v>
@@ -9779,7 +9788,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>IF(Sheet1!A77=Sheet2!A77,Sheet1!A77,"")</f>
         <v>38</v>
@@ -9805,7 +9814,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <f>IF(Sheet1!A78=Sheet2!A78,Sheet1!A78,"")</f>
         <v>38</v>
@@ -9831,7 +9840,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <f>IF(Sheet1!A79=Sheet2!A79,Sheet1!A79,"")</f>
         <v>39</v>
@@ -9857,7 +9866,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <f>IF(Sheet1!A80=Sheet2!A80,Sheet1!A80,"")</f>
         <v>39</v>
@@ -9883,7 +9892,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <f>IF(Sheet1!A81=Sheet2!A81,Sheet1!A81,"")</f>
         <v>40</v>
@@ -9909,7 +9918,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <f>IF(Sheet1!A82=Sheet2!A82,Sheet1!A82,"")</f>
         <v>40</v>
@@ -9935,7 +9944,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <f>IF(Sheet1!A83=Sheet2!A83,Sheet1!A83,"")</f>
         <v>41</v>
@@ -9961,7 +9970,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <f>IF(Sheet1!A84=Sheet2!A84,Sheet1!A84,"")</f>
         <v>41</v>
@@ -9987,7 +9996,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <f>IF(Sheet1!A85=Sheet2!A85,Sheet1!A85,"")</f>
         <v>42</v>
@@ -10013,7 +10022,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <f>IF(Sheet1!A86=Sheet2!A86,Sheet1!A86,"")</f>
         <v>42</v>
@@ -10024,7 +10033,7 @@
       </c>
       <c r="C86" t="str">
         <f>IF(Sheet1!C86=Sheet2!C86,Sheet1!C86,"")</f>
-        <v>cr^p</v>
+        <v/>
       </c>
       <c r="D86">
         <f>IF(Sheet1!D86=Sheet2!D86,Sheet1!D86,"")</f>
@@ -10039,7 +10048,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <f>IF(Sheet1!A87=Sheet2!A87,Sheet1!A87,"")</f>
         <v>43</v>
@@ -10065,7 +10074,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <f>IF(Sheet1!A88=Sheet2!A88,Sheet1!A88,"")</f>
         <v>43</v>
@@ -10091,7 +10100,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <f>IF(Sheet1!A89=Sheet2!A89,Sheet1!A89,"")</f>
         <v>44</v>
@@ -10117,7 +10126,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <f>IF(Sheet1!A90=Sheet2!A90,Sheet1!A90,"")</f>
         <v>44</v>
@@ -10143,7 +10152,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <f>IF(Sheet1!A91=Sheet2!A91,Sheet1!A91,"")</f>
         <v>45</v>
@@ -10169,7 +10178,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <f>IF(Sheet1!A92=Sheet2!A92,Sheet1!A92,"")</f>
         <v>45</v>
@@ -10195,7 +10204,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <f>IF(Sheet1!A93=Sheet2!A93,Sheet1!A93,"")</f>
         <v>46</v>
@@ -10221,7 +10230,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <f>IF(Sheet1!A94=Sheet2!A94,Sheet1!A94,"")</f>
         <v>46</v>
@@ -10247,7 +10256,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <f>IF(Sheet1!A95=Sheet2!A95,Sheet1!A95,"")</f>
         <v>47</v>
@@ -10273,7 +10282,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <f>IF(Sheet1!A96=Sheet2!A96,Sheet1!A96,"")</f>
         <v>47</v>
@@ -10299,7 +10308,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <f>IF(Sheet1!A97=Sheet2!A97,Sheet1!A97,"")</f>
         <v>48</v>
@@ -10325,7 +10334,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <f>IF(Sheet1!A98=Sheet2!A98,Sheet1!A98,"")</f>
         <v>48</v>
@@ -10336,7 +10345,7 @@
       </c>
       <c r="C98" t="str">
         <f>IF(Sheet1!C98=Sheet2!C98,Sheet1!C98,"")</f>
-        <v>clId</v>
+        <v/>
       </c>
       <c r="D98">
         <f>IF(Sheet1!D98=Sheet2!D98,Sheet1!D98,"")</f>
@@ -10351,7 +10360,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <f>IF(Sheet1!A99=Sheet2!A99,Sheet1!A99,"")</f>
         <v>49</v>
@@ -10377,7 +10386,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <f>IF(Sheet1!A100=Sheet2!A100,Sheet1!A100,"")</f>
         <v>49</v>
@@ -10403,7 +10412,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <f>IF(Sheet1!A101=Sheet2!A101,Sheet1!A101,"")</f>
         <v>50</v>
@@ -10429,7 +10438,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <f>IF(Sheet1!A102=Sheet2!A102,Sheet1!A102,"")</f>
         <v>50</v>
@@ -10455,7 +10464,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <f>IF(Sheet1!A103=Sheet2!A103,Sheet1!A103,"")</f>
         <v>51</v>
@@ -10481,7 +10490,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <f>IF(Sheet1!A104=Sheet2!A104,Sheet1!A104,"")</f>
         <v>51</v>
@@ -10507,7 +10516,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <f>IF(Sheet1!A105=Sheet2!A105,Sheet1!A105,"")</f>
         <v>52</v>
@@ -10533,7 +10542,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <f>IF(Sheet1!A106=Sheet2!A106,Sheet1!A106,"")</f>
         <v>52</v>
@@ -10559,7 +10568,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <f>IF(Sheet1!A107=Sheet2!A107,Sheet1!A107,"")</f>
         <v>53</v>
@@ -10585,7 +10594,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <f>IF(Sheet1!A108=Sheet2!A108,Sheet1!A108,"")</f>
         <v>53</v>
@@ -10611,7 +10620,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <f>IF(Sheet1!A109=Sheet2!A109,Sheet1!A109,"")</f>
         <v>54</v>
@@ -10637,7 +10646,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <f>IF(Sheet1!A110=Sheet2!A110,Sheet1!A110,"")</f>
         <v>54</v>
@@ -10663,7 +10672,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <f>IF(Sheet1!A111=Sheet2!A111,Sheet1!A111,"")</f>
         <v>55</v>
@@ -10689,7 +10698,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <f>IF(Sheet1!A112=Sheet2!A112,Sheet1!A112,"")</f>
         <v>55</v>
@@ -10715,7 +10724,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <f>IF(Sheet1!A113=Sheet2!A113,Sheet1!A113,"")</f>
         <v>56</v>
@@ -10741,7 +10750,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <f>IF(Sheet1!A114=Sheet2!A114,Sheet1!A114,"")</f>
         <v>56</v>
@@ -10767,7 +10776,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <f>IF(Sheet1!A115=Sheet2!A115,Sheet1!A115,"")</f>
         <v>57</v>
@@ -10793,7 +10802,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <f>IF(Sheet1!A116=Sheet2!A116,Sheet1!A116,"")</f>
         <v>57</v>
@@ -10819,7 +10828,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <f>IF(Sheet1!A117=Sheet2!A117,Sheet1!A117,"")</f>
         <v>58</v>
@@ -10845,7 +10854,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <f>IF(Sheet1!A118=Sheet2!A118,Sheet1!A118,"")</f>
         <v>58</v>
@@ -10871,7 +10880,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <f>IF(Sheet1!A119=Sheet2!A119,Sheet1!A119,"")</f>
         <v>59</v>
@@ -10897,7 +10906,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <f>IF(Sheet1!A120=Sheet2!A120,Sheet1!A120,"")</f>
         <v>59</v>
@@ -10923,7 +10932,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <f>IF(Sheet1!A121=Sheet2!A121,Sheet1!A121,"")</f>
         <v>60</v>
@@ -10949,7 +10958,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <f>IF(Sheet1!A122=Sheet2!A122,Sheet1!A122,"")</f>
         <v>60</v>
@@ -10975,7 +10984,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <f>IF(Sheet1!A123=Sheet2!A123,Sheet1!A123,"")</f>
         <v>61</v>
@@ -11001,7 +11010,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <f>IF(Sheet1!A124=Sheet2!A124,Sheet1!A124,"")</f>
         <v>61</v>
@@ -11027,7 +11036,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <f>IF(Sheet1!A125=Sheet2!A125,Sheet1!A125,"")</f>
         <v>62</v>
@@ -11038,7 +11047,7 @@
       </c>
       <c r="C125" t="str">
         <f>IF(Sheet1!C125=Sheet2!C125,Sheet1!C125,"")</f>
-        <v>colp</v>
+        <v/>
       </c>
       <c r="D125">
         <f>IF(Sheet1!D125=Sheet2!D125,Sheet1!D125,"")</f>
@@ -11053,7 +11062,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <f>IF(Sheet1!A126=Sheet2!A126,Sheet1!A126,"")</f>
         <v>62</v>
@@ -11079,7 +11088,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <f>IF(Sheet1!A127=Sheet2!A127,Sheet1!A127,"")</f>
         <v>63</v>
@@ -11105,7 +11114,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <f>IF(Sheet1!A128=Sheet2!A128,Sheet1!A128,"")</f>
         <v>63</v>
@@ -11131,7 +11140,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <f>IF(Sheet1!A129=Sheet2!A129,Sheet1!A129,"")</f>
         <v>64</v>
@@ -11157,7 +11166,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <f>IF(Sheet1!A130=Sheet2!A130,Sheet1!A130,"")</f>
         <v>64</v>
@@ -11183,7 +11192,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <f>IF(Sheet1!A131=Sheet2!A131,Sheet1!A131,"")</f>
         <v>65</v>
@@ -11209,7 +11218,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <f>IF(Sheet1!A132=Sheet2!A132,Sheet1!A132,"")</f>
         <v>65</v>
@@ -11235,7 +11244,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <f>IF(Sheet1!A133=Sheet2!A133,Sheet1!A133,"")</f>
         <v>66</v>
@@ -11261,7 +11270,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <f>IF(Sheet1!A134=Sheet2!A134,Sheet1!A134,"")</f>
         <v>66</v>
@@ -11287,7 +11296,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <f>IF(Sheet1!A135=Sheet2!A135,Sheet1!A135,"")</f>
         <v>67</v>
@@ -11313,7 +11322,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <f>IF(Sheet1!A136=Sheet2!A136,Sheet1!A136,"")</f>
         <v>67</v>
@@ -11339,7 +11348,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <f>IF(Sheet1!A137=Sheet2!A137,Sheet1!A137,"")</f>
         <v>68</v>
@@ -11365,7 +11374,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <f>IF(Sheet1!A138=Sheet2!A138,Sheet1!A138,"")</f>
         <v>68</v>
@@ -11391,7 +11400,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <f>IF(Sheet1!A139=Sheet2!A139,Sheet1!A139,"")</f>
         <v>69</v>
@@ -11417,7 +11426,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <f>IF(Sheet1!A140=Sheet2!A140,Sheet1!A140,"")</f>
         <v>69</v>
@@ -11443,7 +11452,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <f>IF(Sheet1!A141=Sheet2!A141,Sheet1!A141,"")</f>
         <v>70</v>
@@ -11469,7 +11478,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <f>IF(Sheet1!A142=Sheet2!A142,Sheet1!A142,"")</f>
         <v>70</v>
@@ -11495,7 +11504,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <f>IF(Sheet1!A143=Sheet2!A143,Sheet1!A143,"")</f>
         <v>71</v>
@@ -11521,7 +11530,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <f>IF(Sheet1!A144=Sheet2!A144,Sheet1!A144,"")</f>
         <v>71</v>
@@ -11547,7 +11556,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <f>IF(Sheet1!A145=Sheet2!A145,Sheet1!A145,"")</f>
         <v>72</v>
@@ -11573,7 +11582,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <f>IF(Sheet1!A146=Sheet2!A146,Sheet1!A146,"")</f>
         <v>72</v>
@@ -11599,7 +11608,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <f>IF(Sheet1!A147=Sheet2!A147,Sheet1!A147,"")</f>
         <v>73</v>
@@ -11625,7 +11634,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <f>IF(Sheet1!A148=Sheet2!A148,Sheet1!A148,"")</f>
         <v>73</v>
@@ -11651,7 +11660,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <f>IF(Sheet1!A149=Sheet2!A149,Sheet1!A149,"")</f>
         <v>74</v>
@@ -11677,7 +11686,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <f>IF(Sheet1!A150=Sheet2!A150,Sheet1!A150,"")</f>
         <v>74</v>
@@ -11703,7 +11712,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <f>IF(Sheet1!A151=Sheet2!A151,Sheet1!A151,"")</f>
         <v>75</v>
@@ -11729,7 +11738,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <f>IF(Sheet1!A152=Sheet2!A152,Sheet1!A152,"")</f>
         <v>75</v>
@@ -11755,7 +11764,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <f>IF(Sheet1!A153=Sheet2!A153,Sheet1!A153,"")</f>
         <v>76</v>
@@ -11781,7 +11790,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <f>IF(Sheet1!A154=Sheet2!A154,Sheet1!A154,"")</f>
         <v>76</v>
@@ -11807,7 +11816,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <f>IF(Sheet1!A155=Sheet2!A155,Sheet1!A155,"")</f>
         <v>77</v>
@@ -11833,7 +11842,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <f>IF(Sheet1!A156=Sheet2!A156,Sheet1!A156,"")</f>
         <v>77</v>
@@ -11859,7 +11868,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <f>IF(Sheet1!A157=Sheet2!A157,Sheet1!A157,"")</f>
         <v>78</v>
@@ -11885,7 +11894,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <f>IF(Sheet1!A158=Sheet2!A158,Sheet1!A158,"")</f>
         <v>78</v>
@@ -11911,7 +11920,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <f>IF(Sheet1!A159=Sheet2!A159,Sheet1!A159,"")</f>
         <v>79</v>
@@ -11937,7 +11946,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <f>IF(Sheet1!A160=Sheet2!A160,Sheet1!A160,"")</f>
         <v>79</v>
@@ -11963,7 +11972,7 @@
         <v>nw_nonword</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <f>IF(Sheet1!A161=Sheet2!A161,Sheet1!A161,"")</f>
         <v>80</v>
@@ -11989,7 +11998,7 @@
         <v>ph_nonword</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <f>IF(Sheet1!A162=Sheet2!A162,Sheet1!A162,"")</f>
         <v>80</v>
